--- a/data/georgia_census/adjara/shuaxevi/education_graduates.xlsx
+++ b/data/georgia_census/adjara/shuaxevi/education_graduates.xlsx
@@ -1985,13 +1985,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C1ACF9D-0D7C-4403-B6AE-59A1917C1BE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{094EEA9F-A0B3-47CE-AF20-075DD8815BC7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D54E68C-0973-479A-B206-1C92DCE7AA41}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B8D73D-EE5D-4ACE-86D7-366BB41C45D3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140F3D59-A9AF-4276-815A-B9DF7725CCB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CACE717-9FA1-4120-9040-FF68620286C0}"/>
 </file>